--- a/excel_sheets/convert_regression_outputs_probabilities.xlsx
+++ b/excel_sheets/convert_regression_outputs_probabilities.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10220"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vidyadharbendre/nn_workspace/learn_neural_network_using_examples/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C51DC5D-5C73-6A48-B0F4-274145220B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6050B1A1-AAB7-4747-BF32-0ACB1FEE48A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17580" xr2:uid="{00B2D857-1B8A-A941-9D74-37607AEBBE92}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17580" activeTab="1" xr2:uid="{00B2D857-1B8A-A941-9D74-37607AEBBE92}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Multi-Class" sheetId="1" r:id="rId1"/>
+    <sheet name="Sigmoid" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>y</t>
   </si>
@@ -72,6 +73,15 @@
   </si>
   <si>
     <t>Sno</t>
+  </si>
+  <si>
+    <t>Student_Study_Hrs(x)</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
   </si>
 </sst>
 </file>
@@ -79,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -112,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -280,6 +290,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -290,7 +309,6 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,9 +328,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF4D0A5-B9BC-3843-AD79-1D550AE475B5}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,25 +688,25 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -693,30 +714,30 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>28</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f t="shared" ref="C2:C6" si="0">B2*B2</f>
         <v>784</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <f t="shared" ref="D2:D6" si="1">EXP(B2)</f>
         <v>1446257064291.4751</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <f>D2/$D$8</f>
         <v>1.7986204559030366E-2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <f>(B2-$B$10)/($B$11-$B$10)</f>
         <v>0.9375</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <f>B2/$B$13</f>
         <v>1.0769230769230769</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f>C2/$C$13</f>
         <v>0.22515795519816198</v>
       </c>
@@ -725,30 +746,30 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>32</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f t="shared" si="1"/>
         <v>78962960182680.688</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f>D3/$D$8</f>
         <v>0.98201349504076285</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F6" si="2">(B3-$B$10)/($B$11-$B$10)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f t="shared" ref="G3:G6" si="3">B3/$B$13</f>
         <v>1.2307692307692308</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H6" si="4">C3/$C$13</f>
         <v>0.29408385985066055</v>
       </c>
@@ -757,30 +778,30 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>-32</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" si="1"/>
         <v>1.2664165549094176E-14</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f>D4/$D$8</f>
         <v>1.5749639380121065E-28</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f t="shared" si="3"/>
         <v>-1.2307692307692308</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <f t="shared" si="4"/>
         <v>0.29408385985066055</v>
       </c>
@@ -789,30 +810,30 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>17</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>24154952.753575299</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f>D5/$D$8</f>
         <v>3.0040020689707758E-7</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <f t="shared" si="2"/>
         <v>0.765625</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f t="shared" si="3"/>
         <v>0.65384615384615385</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f t="shared" si="4"/>
         <v>8.2998276852383687E-2</v>
       </c>
@@ -821,116 +842,106 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>-19</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>361</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <f t="shared" si="1"/>
         <v>5.6027964375372678E-9</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f>D6/$D$8</f>
         <v>6.9678513810766323E-23</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f t="shared" si="2"/>
         <v>0.203125</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f t="shared" si="3"/>
         <v>-0.73076923076923073</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <f t="shared" si="4"/>
         <v>0.10367604824813326</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16">
-        <f>+SUM(B2:B6)</f>
+      <c r="B8" s="15">
+        <f t="shared" ref="B8:H8" si="5">+SUM(B2:B6)</f>
         <v>26</v>
       </c>
-      <c r="C8" s="16">
-        <f>+SUM(C2:C6)</f>
+      <c r="C8" s="15">
+        <f t="shared" si="5"/>
         <v>3482</v>
       </c>
-      <c r="D8" s="16">
-        <f>+SUM(D2:D6)</f>
+      <c r="D8" s="15">
+        <f t="shared" si="5"/>
         <v>80409241401924.906</v>
       </c>
-      <c r="E8" s="18">
-        <f>+SUM(E2:E6)</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="18">
-        <f>+SUM(F2:F6)</f>
+      <c r="E8" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="5"/>
         <v>2.90625</v>
       </c>
-      <c r="G8" s="18">
-        <f>+SUM(G2:G6)</f>
+      <c r="G8" s="17">
+        <f t="shared" si="5"/>
         <v>0.99999999999999967</v>
       </c>
-      <c r="H8" s="18">
-        <f>+SUM(H2:H6)</f>
+      <c r="H8" s="17">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="15"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
-        <f>MIN(B2:B6)</f>
+      <c r="B10">
+        <f t="shared" ref="B10:H10" si="6">MIN(B2:B6)</f>
         <v>-32</v>
       </c>
-      <c r="C10" s="2">
-        <f>MIN(C2:C6)</f>
+      <c r="C10">
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
-      <c r="D10" s="16">
-        <f>MIN(D2:D6)</f>
+      <c r="D10" s="15">
+        <f t="shared" si="6"/>
         <v>1.2664165549094176E-14</v>
       </c>
-      <c r="E10" s="16">
-        <f>MIN(E2:E6)</f>
+      <c r="E10" s="15">
+        <f t="shared" si="6"/>
         <v>1.5749639380121065E-28</v>
       </c>
-      <c r="F10" s="16">
-        <f>MIN(F2:F6)</f>
+      <c r="F10" s="15">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G10" s="16">
-        <f>MIN(G2:G6)</f>
+      <c r="G10" s="15">
+        <f t="shared" si="6"/>
         <v>-1.2307692307692308</v>
       </c>
-      <c r="H10" s="16">
-        <f>MIN(H2:H6)</f>
+      <c r="H10" s="15">
+        <f t="shared" si="6"/>
         <v>8.2998276852383687E-2</v>
       </c>
     </row>
@@ -938,79 +949,441 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <f>MAX(B2:B6)</f>
+      <c r="B11">
+        <f t="shared" ref="B11:H11" si="7">MAX(B2:B6)</f>
         <v>32</v>
       </c>
-      <c r="C11" s="2">
-        <f>MAX(C2:C6)</f>
+      <c r="C11">
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
-      <c r="D11" s="16">
-        <f>MAX(D2:D6)</f>
+      <c r="D11" s="15">
+        <f t="shared" si="7"/>
         <v>78962960182680.688</v>
       </c>
-      <c r="E11" s="16">
-        <f>MAX(E2:E6)</f>
+      <c r="E11" s="15">
+        <f t="shared" si="7"/>
         <v>0.98201349504076285</v>
       </c>
-      <c r="F11" s="16">
-        <f>MAX(F2:F6)</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <f>MAX(G2:G6)</f>
+      <c r="F11" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="7"/>
         <v>1.2307692307692308</v>
       </c>
-      <c r="H11" s="16">
-        <f>MAX(H2:H6)</f>
+      <c r="H11" s="15">
+        <f t="shared" si="7"/>
         <v>0.29408385985066055</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12">
-        <f>SUM(B2:B6)</f>
+      <c r="B13" s="11">
+        <f t="shared" ref="B13:H13" si="8">SUM(B2:B6)</f>
         <v>26</v>
       </c>
-      <c r="C13" s="12">
-        <f>SUM(C2:C6)</f>
+      <c r="C13" s="11">
+        <f t="shared" si="8"/>
         <v>3482</v>
       </c>
-      <c r="D13" s="16">
-        <f>SUM(D2:D6)</f>
+      <c r="D13" s="15">
+        <f t="shared" si="8"/>
         <v>80409241401924.906</v>
       </c>
-      <c r="E13" s="16">
-        <f>SUM(E2:E6)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <f>SUM(F2:F6)</f>
+      <c r="E13" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="8"/>
         <v>2.90625</v>
       </c>
-      <c r="G13" s="16">
-        <f>SUM(G2:G6)</f>
+      <c r="G13" s="15">
+        <f t="shared" si="8"/>
         <v>0.99999999999999967</v>
       </c>
-      <c r="H13" s="16">
-        <f>SUM(H2:H6)</f>
+      <c r="H13" s="15">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9183434-752E-4A42-A8B3-04782471C2DC}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C3" si="0">B2*B2</f>
+        <v>784</v>
+      </c>
+      <c r="D2" s="15">
+        <f t="shared" ref="D2:D3" si="1">EXP(B2)</f>
+        <v>1446257064291.4751</v>
+      </c>
+      <c r="E2" s="12">
+        <f>D2/$D$5</f>
+        <v>1.7986209962091559E-2</v>
+      </c>
+      <c r="F2" s="12">
+        <f>(B2-$B$7)/($B$8-$B$7)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <f>B2/$B$10</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H2" s="13">
+        <f>C2/$C$10</f>
+        <v>0.4336283185840708</v>
+      </c>
+      <c r="I2" s="12">
+        <f>EXP(B2)/(1+EXP(B2))</f>
+        <v>0.99999999999930855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" si="1"/>
+        <v>78962960182680.688</v>
+      </c>
+      <c r="E3" s="12">
+        <f>D3/$D$5</f>
+        <v>0.98201379003790856</v>
+      </c>
+      <c r="F3" s="12">
+        <f>(B3-$B$7)/($B$8-$B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <f>B3/$B$10</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H3" s="13">
+        <f>C3/$C$10</f>
+        <v>0.5663716814159292</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3" si="2">EXP(B3)/(1+EXP(B3))</f>
+        <v>0.99999999999998734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <f t="shared" ref="B5:H5" si="3">+SUM(B2:B3)</f>
+        <v>60</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" si="3"/>
+        <v>1808</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="3"/>
+        <v>80409217246972.156</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="15"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:H7" si="4">MIN(B2:B3)</f>
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="4"/>
+        <v>784</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="4"/>
+        <v>1446257064291.4751</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="4"/>
+        <v>1.7986209962091559E-2</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="4"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4336283185840708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:H8" si="5">MAX(B2:B3)</f>
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="5"/>
+        <v>78962960182680.688</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="5"/>
+        <v>0.98201379003790856</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="5"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="5"/>
+        <v>0.5663716814159292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" ref="B10:H10" si="6">SUM(B2:B3)</f>
+        <v>60</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="6"/>
+        <v>1808</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="6"/>
+        <v>80409217246972.156</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>90</v>
+      </c>
+      <c r="C25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>95</v>
+      </c>
+      <c r="C26">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>